--- a/Week-3/Assignment - Day 14.xlsx
+++ b/Week-3/Assignment - Day 14.xlsx
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
